--- a/Fuctionality&Requirements/ProgramFunctionality/DrawningTree.xlsx
+++ b/Fuctionality&Requirements/ProgramFunctionality/DrawningTree.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F23826F-AF3B-4369-B125-95237546E101}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06BC601-1810-42CF-8999-716D5B846B4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="120" windowWidth="14595" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1455" windowWidth="14610" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeMasterDesign" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -744,10 +744,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -762,35 +762,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -809,15 +790,80 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,80 +878,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1190,15 +1162,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1214,18 +1186,18 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="31" t="str">
+      <c r="C5" s="24" t="str">
         <f t="shared" ref="C5:C10" si="0">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85778","C85778")</f>
         <v>C85778</v>
       </c>
@@ -1235,7 +1207,7 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="32" t="str">
+      <c r="C6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>C85778</v>
       </c>
@@ -1245,7 +1217,7 @@
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="32" t="str">
+      <c r="C7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>C85778</v>
       </c>
@@ -1255,7 +1227,7 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="32" t="str">
+      <c r="C8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>C85778</v>
       </c>
@@ -1265,7 +1237,7 @@
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32" t="str">
+      <c r="C9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>C85778</v>
       </c>
@@ -1275,24 +1247,24 @@
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="32" t="str">
+      <c r="C10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>C85778</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="31" t="str">
+      <c r="C12" s="24" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85778","C85778")</f>
         <v>C85778</v>
       </c>
@@ -1302,100 +1274,100 @@
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="32" t="str">
+      <c r="C13" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85778","C85778")</f>
         <v>C85778</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="46" t="str">
+      <c r="C14" s="42" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85778","C85778")</f>
         <v>C85778</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="45"/>
+      <c r="C15" s="43"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="43"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="50" t="str">
+      <c r="C18" s="35" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85778","C85778")</f>
         <v>C85778</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="36"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="36"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="36"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="36"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="37"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="32" t="str">
+      <c r="C25" s="25" t="str">
         <f t="shared" ref="C25:C30" si="1">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85778","C85778")</f>
         <v>C85778</v>
       </c>
@@ -1405,7 +1377,7 @@
       <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="32" t="str">
+      <c r="C26" s="25" t="str">
         <f t="shared" si="1"/>
         <v>C85778</v>
       </c>
@@ -1415,7 +1387,7 @@
       <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="32" t="str">
+      <c r="C27" s="25" t="str">
         <f t="shared" si="1"/>
         <v>C85778</v>
       </c>
@@ -1425,7 +1397,7 @@
       <c r="B28" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="32" t="str">
+      <c r="C28" s="25" t="str">
         <f t="shared" si="1"/>
         <v>C85778</v>
       </c>
@@ -1435,151 +1407,151 @@
       <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="32" t="str">
+      <c r="C29" s="25" t="str">
         <f t="shared" si="1"/>
         <v>C85778</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="56" t="str">
+      <c r="C30" s="47" t="str">
         <f t="shared" si="1"/>
         <v>C85778</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="57"/>
+      <c r="C31" s="48"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="57"/>
+      <c r="C32" s="48"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="57"/>
+      <c r="C33" s="48"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="57"/>
+      <c r="C34" s="48"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="58"/>
+      <c r="C35" s="49"/>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="32" t="str">
+      <c r="C36" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85778","C85778")</f>
         <v>C85778</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="34" t="str">
+      <c r="C37" s="26" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85778","C85778")</f>
         <v>C85778</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="31" t="str">
+      <c r="C39" s="24" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85779","C85779")</f>
         <v>C85779</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="46" t="str">
+      <c r="C40" s="42" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85779","C85779")</f>
         <v>C85779</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="45"/>
+      <c r="C41" s="43"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="45"/>
+      <c r="C42" s="43"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="45"/>
+      <c r="C43" s="43"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="43"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="45"/>
+      <c r="C45" s="43"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="45"/>
+      <c r="C46" s="43"/>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="32" t="str">
+      <c r="C47" s="25" t="str">
         <f t="shared" ref="C47:C52" si="2">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85779","C85779")</f>
         <v>C85779</v>
       </c>
@@ -1589,7 +1561,7 @@
       <c r="B48" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="32" t="str">
+      <c r="C48" s="25" t="str">
         <f t="shared" si="2"/>
         <v>C85779</v>
       </c>
@@ -1599,7 +1571,7 @@
       <c r="B49" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="32" t="str">
+      <c r="C49" s="25" t="str">
         <f t="shared" si="2"/>
         <v>C85779</v>
       </c>
@@ -1609,17 +1581,17 @@
       <c r="B50" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="32" t="str">
+      <c r="C50" s="25" t="str">
         <f t="shared" si="2"/>
         <v>C85779</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="32" t="str">
+      <c r="C51" s="25" t="str">
         <f t="shared" si="2"/>
         <v>C85779</v>
       </c>
@@ -1629,72 +1601,72 @@
       <c r="B52" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="32" t="str">
+      <c r="C52" s="25" t="str">
         <f t="shared" si="2"/>
         <v>C85779</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="32" t="str">
+      <c r="C53" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85780","C85780")</f>
         <v>C85780</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="46" t="str">
+      <c r="C54" s="42" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85780","C85780")</f>
         <v>C85780</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="45"/>
+      <c r="C55" s="43"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="45"/>
+      <c r="C56" s="43"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="45"/>
+      <c r="C57" s="43"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="45"/>
+      <c r="C58" s="43"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="45"/>
+      <c r="C59" s="43"/>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="32" t="str">
+      <c r="C60" s="25" t="str">
         <f t="shared" ref="C60:C65" si="3">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85780","C85780")</f>
         <v>C85780</v>
       </c>
@@ -1704,17 +1676,17 @@
       <c r="B61" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="32" t="str">
+      <c r="C61" s="25" t="str">
         <f t="shared" si="3"/>
         <v>C85780</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="32" t="str">
+      <c r="C62" s="25" t="str">
         <f t="shared" si="3"/>
         <v>C85780</v>
       </c>
@@ -1724,7 +1696,7 @@
       <c r="B63" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="32" t="str">
+      <c r="C63" s="25" t="str">
         <f t="shared" si="3"/>
         <v>C85780</v>
       </c>
@@ -1734,7 +1706,7 @@
       <c r="B64" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="32" t="str">
+      <c r="C64" s="25" t="str">
         <f t="shared" si="3"/>
         <v>C85780</v>
       </c>
@@ -1744,7 +1716,7 @@
       <c r="B65" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="32" t="str">
+      <c r="C65" s="25" t="str">
         <f t="shared" si="3"/>
         <v>C85780</v>
       </c>
@@ -1754,97 +1726,97 @@
       <c r="B66" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="29"/>
+      <c r="C66" s="22"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="39"/>
+      <c r="C67" s="55"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="39"/>
+      <c r="C68" s="55"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="39"/>
+      <c r="C69" s="55"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="39"/>
+      <c r="C70" s="55"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="40"/>
+      <c r="C71" s="56"/>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="29"/>
+      <c r="C72" s="22"/>
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="29"/>
+      <c r="C73" s="22"/>
     </row>
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="29"/>
+      <c r="C74" s="22"/>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="29"/>
+      <c r="C75" s="22"/>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="23" t="str">
-        <f t="shared" ref="C76:C81" si="4">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85781","C85781")</f>
+      <c r="C76" s="18" t="str">
+        <f t="shared" ref="C76:C80" si="4">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85781","C85781")</f>
         <v>C85781</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="32" t="str">
+      <c r="C77" s="25" t="str">
         <f t="shared" si="4"/>
         <v>C85781</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="32" t="str">
+      <c r="C78" s="25" t="str">
         <f t="shared" si="4"/>
         <v>C85781</v>
       </c>
@@ -1854,7 +1826,7 @@
       <c r="B79" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="32" t="str">
+      <c r="C79" s="25" t="str">
         <f t="shared" si="4"/>
         <v>C85781</v>
       </c>
@@ -1864,7 +1836,7 @@
       <c r="B80" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="32" t="str">
+      <c r="C80" s="25" t="str">
         <f t="shared" si="4"/>
         <v>C85781</v>
       </c>
@@ -1874,291 +1846,291 @@
       <c r="B81" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="33" t="str">
+      <c r="C81" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85781","C85781")</f>
         <v>C85781</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="42"/>
-      <c r="C82" s="43"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="40"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C83" s="31" t="str">
+      <c r="C83" s="24" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85782","C85782")</f>
         <v>C85782</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
-      <c r="B84" s="24" t="s">
+      <c r="A84" s="50"/>
+      <c r="B84" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="64" t="str">
+      <c r="C84" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85782","C85782")</f>
         <v>C85782</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
-      <c r="B85" s="17" t="s">
+      <c r="A85" s="50"/>
+      <c r="B85" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C85" s="36"/>
+      <c r="C85" s="52"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="17" t="s">
+      <c r="A86" s="50"/>
+      <c r="B86" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C86" s="36"/>
+      <c r="C86" s="52"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="17" t="s">
+      <c r="A87" s="50"/>
+      <c r="B87" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C87" s="36"/>
+      <c r="C87" s="52"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
-      <c r="B88" s="17" t="s">
+      <c r="A88" s="50"/>
+      <c r="B88" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C88" s="36"/>
+      <c r="C88" s="52"/>
     </row>
     <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
-      <c r="B89" s="24" t="s">
+      <c r="A89" s="41"/>
+      <c r="B89" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="46" t="str">
+      <c r="C89" s="42" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85782","C85782")</f>
         <v>C85782</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="44"/>
-      <c r="B90" s="18" t="s">
+      <c r="A90" s="41"/>
+      <c r="B90" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C90" s="45"/>
+      <c r="C90" s="43"/>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C91" s="33" t="str">
+      <c r="C91" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85782","C85782")</f>
         <v>C85782</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C92" s="33" t="str">
+      <c r="C92" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85782","C85782")</f>
         <v>C85782</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="24" t="s">
+      <c r="A93" s="50"/>
+      <c r="B93" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C93" s="64" t="str">
+      <c r="C93" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85782","C85782")</f>
         <v>C85782</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="35"/>
-      <c r="B94" s="18" t="s">
+      <c r="A94" s="50"/>
+      <c r="B94" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C94" s="36"/>
+      <c r="C94" s="52"/>
     </row>
     <row r="95" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="43"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="40"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
-      <c r="B96" s="17" t="s">
+      <c r="A96" s="27"/>
+      <c r="B96" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C96" s="65" t="str">
+      <c r="C96" s="30" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="47"/>
-      <c r="B97" s="60" t="s">
+      <c r="A97" s="32"/>
+      <c r="B97" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C97" s="50" t="str">
+      <c r="C97" s="35" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
-      <c r="B98" s="16" t="s">
+      <c r="A98" s="33"/>
+      <c r="B98" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C98" s="51"/>
+      <c r="C98" s="36"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
-      <c r="B99" s="16" t="s">
+      <c r="A99" s="33"/>
+      <c r="B99" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="51"/>
+      <c r="C99" s="36"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="48"/>
-      <c r="B100" s="16" t="s">
+      <c r="A100" s="33"/>
+      <c r="B100" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="51"/>
+      <c r="C100" s="36"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
-      <c r="B101" s="16" t="s">
+      <c r="A101" s="33"/>
+      <c r="B101" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="51"/>
+      <c r="C101" s="36"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="48"/>
-      <c r="B102" s="16" t="s">
+      <c r="A102" s="33"/>
+      <c r="B102" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C102" s="51"/>
+      <c r="C102" s="36"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
-      <c r="B103" s="16" t="s">
+      <c r="A103" s="33"/>
+      <c r="B103" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C103" s="51"/>
+      <c r="C103" s="36"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
-      <c r="B104" s="16" t="s">
+      <c r="A104" s="33"/>
+      <c r="B104" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C104" s="51"/>
+      <c r="C104" s="36"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
-      <c r="B105" s="16" t="s">
+      <c r="A105" s="33"/>
+      <c r="B105" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="51"/>
+      <c r="C105" s="36"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="48"/>
-      <c r="B106" s="16" t="s">
+      <c r="A106" s="33"/>
+      <c r="B106" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="51"/>
+      <c r="C106" s="36"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="49"/>
-      <c r="B107" s="61" t="s">
+      <c r="A107" s="34"/>
+      <c r="B107" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="52"/>
+      <c r="C107" s="37"/>
     </row>
     <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="47"/>
-      <c r="B108" s="24" t="s">
+      <c r="A108" s="32"/>
+      <c r="B108" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="50" t="str">
+      <c r="C108" s="35" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="49"/>
-      <c r="B109" s="18" t="s">
+      <c r="A109" s="34"/>
+      <c r="B109" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C109" s="52"/>
+      <c r="C109" s="37"/>
     </row>
     <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="47"/>
-      <c r="B110" s="24" t="s">
+      <c r="A110" s="32"/>
+      <c r="B110" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="50" t="str">
+      <c r="C110" s="35" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="48"/>
-      <c r="B111" s="17" t="s">
+      <c r="A111" s="33"/>
+      <c r="B111" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C111" s="51"/>
+      <c r="C111" s="36"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
-      <c r="B112" s="18" t="s">
+      <c r="A112" s="34"/>
+      <c r="B112" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="52"/>
+      <c r="C112" s="37"/>
     </row>
     <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="47"/>
-      <c r="B113" s="24" t="s">
+      <c r="A113" s="32"/>
+      <c r="B113" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="50" t="str">
+      <c r="C113" s="35" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
-      <c r="B114" s="18" t="s">
+      <c r="A114" s="34"/>
+      <c r="B114" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C114" s="52"/>
+      <c r="C114" s="37"/>
     </row>
     <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
-      <c r="B115" s="21" t="s">
+      <c r="B115" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C115" s="33" t="str">
+      <c r="C115" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="62"/>
-      <c r="B116" s="20" t="s">
+      <c r="A116" s="29"/>
+      <c r="B116" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C116" s="66" t="str">
+      <c r="C116" s="31" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
@@ -2168,58 +2140,58 @@
       <c r="B117" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C117" s="33" t="str">
+      <c r="C117" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="47"/>
-      <c r="B118" s="63" t="s">
+      <c r="A118" s="32"/>
+      <c r="B118" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C118" s="50" t="str">
+      <c r="C118" s="35" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="49"/>
+      <c r="A119" s="34"/>
       <c r="B119" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C119" s="52"/>
+      <c r="C119" s="37"/>
     </row>
     <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="47"/>
+      <c r="A120" s="32"/>
       <c r="B120" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C120" s="50" t="str">
+      <c r="C120" s="35" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="48"/>
+      <c r="A121" s="33"/>
       <c r="B121" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C121" s="51"/>
+      <c r="C121" s="36"/>
     </row>
     <row r="122" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
+      <c r="A122" s="34"/>
       <c r="B122" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C122" s="52"/>
+      <c r="C122" s="37"/>
     </row>
     <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C123" s="33" t="str">
+      <c r="C123" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
@@ -2229,26 +2201,22 @@
       <c r="B124" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="33" t="str">
+      <c r="C124" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A97:A107"/>
-    <mergeCell ref="C97:C107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="C89:C90"/>
     <mergeCell ref="A54:A59"/>
     <mergeCell ref="C54:C59"/>
     <mergeCell ref="A4:C4"/>
@@ -2262,15 +2230,19 @@
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="C40:C46"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A97:A107"/>
+    <mergeCell ref="C97:C107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="C118:C119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2313,66 +2285,66 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:3" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="27"/>
-    </row>
-    <row r="12" spans="1:3" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="27"/>
-    </row>
-    <row r="13" spans="1:3" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fuctionality&Requirements/ProgramFunctionality/DrawningTree.xlsx
+++ b/Fuctionality&Requirements/ProgramFunctionality/DrawningTree.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06BC601-1810-42CF-8999-716D5B846B4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E0C9A-E1AF-47DA-8D0C-9908039CEE18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1455" windowWidth="14610" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="210" windowWidth="16485" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeMasterDesign" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
   <si>
     <t>№</t>
   </si>
@@ -274,18 +274,12 @@
     <t>If the user clicks on the "View" item of the context menu the next program should be opened:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) drawing</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Print document</t>
   </si>
   <si>
     <t>If the user clicks on the "Included in" item of the context menu the next program should be opened:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) drinclin</t>
-  </si>
-  <si>
     <t>The max length of the entered in "Key" field string should be thirty characters.</t>
   </si>
   <si>
@@ -383,9 +377,6 @@
   </si>
   <si>
     <t>If the user clicks on the "Link" item of the context menu the next program should be opened for the selected document:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) drawing_combination</t>
   </si>
   <si>
     <t>The program should be opened in the "Edit" mode. The document selected will be added as a sub document to the document marked in the tree structure (the left part of the tree program).</t>
@@ -719,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -804,6 +795,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -878,6 +872,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1162,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,11 +1183,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -1253,11 +1250,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -1280,87 +1277,87 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="42" t="str">
+      <c r="C14" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85778","C85778")</f>
         <v>C85778</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="44"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="44"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="44"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="35" t="str">
+      <c r="C18" s="36" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85778","C85778")</f>
         <v>C85778</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="37"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="36"/>
+      <c r="C21" s="37"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="36"/>
+      <c r="C22" s="37"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="37"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -1395,7 +1392,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" s="25" t="str">
         <f t="shared" si="1"/>
@@ -1413,49 +1410,49 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="47" t="str">
+      <c r="C30" s="48" t="str">
         <f t="shared" si="1"/>
         <v>C85778</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="48"/>
+      <c r="C31" s="49"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="48"/>
+      <c r="C32" s="49"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="48"/>
+      <c r="C33" s="49"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="49"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="50"/>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1478,11 +1475,11 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
@@ -1495,56 +1492,56 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="42" t="str">
+      <c r="C40" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85779","C85779")</f>
         <v>C85779</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="43"/>
+      <c r="C41" s="44"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="43"/>
+      <c r="C42" s="44"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="43"/>
+      <c r="C43" s="44"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="43"/>
+      <c r="C44" s="44"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="43"/>
+      <c r="C45" s="44"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="43"/>
+      <c r="C46" s="44"/>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -1617,49 +1614,49 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="42" t="str">
+      <c r="C54" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85780","C85780")</f>
         <v>C85780</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="43"/>
+      <c r="C55" s="44"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="43"/>
+      <c r="C56" s="44"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="43"/>
+      <c r="C57" s="44"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+      <c r="A58" s="42"/>
       <c r="B58" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="43"/>
+      <c r="C58" s="44"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
+      <c r="A59" s="42"/>
       <c r="B59" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="43"/>
+      <c r="C59" s="44"/>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
@@ -1694,7 +1691,7 @@
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C63" s="25" t="str">
         <f t="shared" si="3"/>
@@ -1704,7 +1701,7 @@
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C64" s="25" t="str">
         <f t="shared" si="3"/>
@@ -1714,7 +1711,7 @@
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C65" s="25" t="str">
         <f t="shared" si="3"/>
@@ -1729,39 +1726,39 @@
       <c r="C66" s="22"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="55"/>
+      <c r="C67" s="56"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="55"/>
+      <c r="C68" s="56"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="55"/>
+      <c r="C69" s="56"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="55"/>
+      <c r="C70" s="56"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="56"/>
+      <c r="C71" s="57"/>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
@@ -1804,7 +1801,7 @@
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C77" s="25" t="str">
         <f t="shared" si="4"/>
@@ -1814,7 +1811,7 @@
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C78" s="25" t="str">
         <f t="shared" si="4"/>
@@ -1824,7 +1821,7 @@
     <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C79" s="25" t="str">
         <f t="shared" si="4"/>
@@ -1844,7 +1841,7 @@
     <row r="81" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C81" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85781","C85781")</f>
@@ -1852,11 +1849,11 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="40"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="41"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -1869,64 +1866,65 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="51" t="str">
+      <c r="C84" s="52" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85782","C85782")</f>
         <v>C85782</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C85" s="52"/>
+      <c r="C85" s="53"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="50"/>
+      <c r="A86" s="51"/>
       <c r="B86" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C86" s="52"/>
+      <c r="C86" s="53"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="50"/>
+      <c r="A87" s="51"/>
       <c r="B87" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C87" s="52"/>
+        <v>78</v>
+      </c>
+      <c r="C87" s="53"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="50"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C88" s="52"/>
+      <c r="C88" s="53"/>
     </row>
     <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
+      <c r="A89" s="42"/>
       <c r="B89" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="42" t="str">
+      <c r="C89" s="43" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85782","C85782")</f>
         <v>C85782</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="41"/>
-      <c r="B90" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="43"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B301"," - (maint) drawing")</f>
+        <v xml:space="preserve"> - (maint) drawing</v>
+      </c>
+      <c r="C90" s="44"/>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C91" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85782","C85782")</f>
@@ -1936,7 +1934,7 @@
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C92" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85782","C85782")</f>
@@ -1944,28 +1942,29 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="50"/>
+      <c r="A93" s="51"/>
       <c r="B93" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" s="51" t="str">
+        <v>79</v>
+      </c>
+      <c r="C93" s="52" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85782","C85782")</f>
         <v>C85782</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="50"/>
-      <c r="B94" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" s="52"/>
+      <c r="A94" s="51"/>
+      <c r="B94" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B312"," - (browse) drinclin")</f>
+        <v xml:space="preserve"> - (browse) drinclin</v>
+      </c>
+      <c r="C94" s="53"/>
     </row>
     <row r="95" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="39"/>
-      <c r="C95" s="40"/>
+      <c r="A95" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="40"/>
+      <c r="C95" s="41"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="27"/>
@@ -1978,147 +1977,150 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
+      <c r="A97" s="33"/>
       <c r="B97" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C97" s="35" t="str">
+      <c r="C97" s="36" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="33"/>
+      <c r="A98" s="34"/>
       <c r="B98" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C98" s="36"/>
+      <c r="C98" s="37"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="33"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="37"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="34"/>
+      <c r="B100" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="37"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="34"/>
+      <c r="B101" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="36"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="33"/>
-      <c r="B100" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C100" s="36"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="33"/>
-      <c r="B101" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C101" s="36"/>
+      <c r="C101" s="37"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
+      <c r="A102" s="34"/>
       <c r="B102" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C102" s="36"/>
+      <c r="C102" s="37"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="33"/>
+      <c r="A103" s="34"/>
       <c r="B103" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C103" s="36"/>
+        <v>78</v>
+      </c>
+      <c r="C103" s="37"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
+      <c r="A104" s="34"/>
       <c r="B104" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C104" s="36"/>
+      <c r="C104" s="37"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="33"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="37"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="34"/>
+      <c r="B106" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" s="37"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="35"/>
+      <c r="B107" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="36"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="33"/>
-      <c r="B106" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" s="36"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
-      <c r="B107" s="13" t="s">
+      <c r="C107" s="38"/>
+    </row>
+    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="33"/>
+      <c r="B108" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="37"/>
-    </row>
-    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
-      <c r="B108" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" s="35" t="str">
+      <c r="C108" s="36" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
-      <c r="B109" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C109" s="37"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B301"," - (maint) drawing")</f>
+        <v xml:space="preserve"> - (maint) drawing</v>
+      </c>
+      <c r="C109" s="38"/>
     </row>
     <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
+      <c r="A110" s="33"/>
       <c r="B110" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C110" s="35" t="str">
+        <v>105</v>
+      </c>
+      <c r="C110" s="36" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="33"/>
-      <c r="B111" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C111" s="36"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B301"," - (maint) drawing")</f>
+        <v xml:space="preserve"> - (maint) drawing</v>
+      </c>
+      <c r="C111" s="37"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C112" s="37"/>
+        <v>107</v>
+      </c>
+      <c r="C112" s="38"/>
     </row>
     <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="32"/>
+      <c r="A113" s="33"/>
       <c r="B113" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C113" s="35" t="str">
+        <v>108</v>
+      </c>
+      <c r="C113" s="36" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C114" s="37"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B301"," - (maint) drawing")</f>
+        <v xml:space="preserve"> - (maint) drawing</v>
+      </c>
+      <c r="C114" s="38"/>
     </row>
     <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C115" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
@@ -2128,7 +2130,7 @@
     <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="29"/>
       <c r="B116" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C116" s="31" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
@@ -2138,7 +2140,7 @@
     <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C117" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
@@ -2146,50 +2148,52 @@
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="32"/>
+      <c r="A118" s="33"/>
       <c r="B118" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C118" s="35" t="str">
+        <v>111</v>
+      </c>
+      <c r="C118" s="36" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="34"/>
-      <c r="B119" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C119" s="37"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="32" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B312"," - (browse) drinclin")</f>
+        <v xml:space="preserve"> - (browse) drinclin</v>
+      </c>
+      <c r="C119" s="38"/>
     </row>
     <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="32"/>
+      <c r="A120" s="33"/>
       <c r="B120" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C120" s="35" t="str">
+        <v>112</v>
+      </c>
+      <c r="C120" s="36" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
         <v>C85808</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
-      <c r="B121" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C121" s="36"/>
+      <c r="A121" s="34"/>
+      <c r="B121" s="58" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B308"," - (maint) drawing_combination")</f>
+        <v xml:space="preserve"> - (maint) drawing_combination</v>
+      </c>
+      <c r="C121" s="37"/>
     </row>
     <row r="122" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="34"/>
+      <c r="A122" s="35"/>
       <c r="B122" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C122" s="37"/>
+        <v>113</v>
+      </c>
+      <c r="C122" s="38"/>
     </row>
     <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C123" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
@@ -2199,7 +2203,7 @@
     <row r="124" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C124" s="25" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85808","C85808")</f>
@@ -2279,70 +2283,70 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:3" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="20"/>
     </row>
